--- a/biology/Médecine/Hydronéphrose/Hydronéphrose.xlsx
+++ b/biology/Médecine/Hydronéphrose/Hydronéphrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydron%C3%A9phrose</t>
+          <t>Hydronéphrose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hydronéphrose (ou obstruction urinaire) est une augmentation de volume du rein due à une rétention d'urine ou à une remontée d'urine vers le rein.
-Elle peut être due à diverses causes[1] comme :
+Elle peut être due à diverses causes comme :
 obstruction de l'uretère (caillot, calculs, tumeur)
 manque de tonicité du bassinet
 grossesse (l'utérus appuyant sur l'uretère)
-L'hydronéphrose est relativement fréquente chez les nouveau-nés (de 1 naissance sur 1000[2] à 1 sur 100[3]) chez lesquels l'uretère est immature.
+L'hydronéphrose est relativement fréquente chez les nouveau-nés (de 1 naissance sur 1000 à 1 sur 100) chez lesquels l'uretère est immature.
 </t>
         </is>
       </c>
